--- a/pkg/excel_tmp.xlsx
+++ b/pkg/excel_tmp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">TITULO</t>
   </si>
@@ -28,13 +28,13 @@
     <t xml:space="preserve">SALA</t>
   </si>
   <si>
-    <t xml:space="preserve">DURAÇÃO TOTAL</t>
+    <t xml:space="preserve">DURc (HH:MM:SS)</t>
   </si>
   <si>
     <t xml:space="preserve">TRAILERS(min)</t>
   </si>
   <si>
-    <t xml:space="preserve">ATÉ INTERVALO (min)</t>
+    <t xml:space="preserve">INTERV (HH:MM:SS)</t>
   </si>
   <si>
     <t xml:space="preserve">SESSÕES</t>
@@ -42,16 +42,22 @@
   <si>
     <t xml:space="preserve">macaco</t>
   </si>
+  <si>
+    <t xml:space="preserve">mufasa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="mm:ss"/>
+    <numFmt numFmtId="167" formatCode="hh:mm"/>
+    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -78,12 +84,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -166,19 +166,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,15 +191,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,78 +411,1024 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="2" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="3" width="13.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>136</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>17</v>
+      <c r="C2" s="11" t="n">
+        <v>0.0298611111111111</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.00694444444444444</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0.00833333333333333</v>
+      </c>
+      <c r="E3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.736111111111111</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.895833333333333</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="14" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="11"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="0"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="11"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="0"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="11"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="0"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="11"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="11"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
